--- a/ventas_limpias.xlsx
+++ b/ventas_limpias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgonzalezall/IsapreGestor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgonzalezall/VentasInsight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09590311-6787-7349-8775-7C6CBF17909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D65B672-3A04-4845-9099-FB78E377ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11500" xr2:uid="{896BFB5F-7C03-4460-99D7-B69CF0BCA1A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{896BFB5F-7C03-4460-99D7-B69CF0BCA1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -871,7 +871,7 @@
   <dimension ref="A1:AF169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
